--- a/assets/botsheet-example.xlsx
+++ b/assets/botsheet-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/Botpress/botpress-master/modules/sheet2bot/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B774DB28-B0E5-6F47-9490-24C91DDF9AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B867A84-8AD0-5E4A-9B8A-77D9121DBCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="27460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,36 +247,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>occur1-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>occur1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>occur1-2</t>
-  </si>
-  <si>
-    <t>occur1-3</t>
-  </si>
-  <si>
     <t>occur2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>occur2-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>occur2-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>occur2-3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ex1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -401,6 +379,24 @@
   <si>
     <t>選択肢の中に該当する質問がない</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>occur1_1</t>
+  </si>
+  <si>
+    <t>occur1_2</t>
+  </si>
+  <si>
+    <t>occur1_3</t>
+  </si>
+  <si>
+    <t>occur2_1</t>
+  </si>
+  <si>
+    <t>occur2_2</t>
+  </si>
+  <si>
+    <t>occur2_3</t>
   </si>
 </sst>
 </file>
@@ -1850,14 +1846,14 @@
         <v>33</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1865,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1873,7 +1869,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
       <c r="O2" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -1890,17 +1886,17 @@
     </row>
     <row r="3" spans="1:27" ht="17">
       <c r="A3" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1908,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1916,7 +1912,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -1933,17 +1929,17 @@
     </row>
     <row r="4" spans="1:27" ht="68">
       <c r="A4" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1951,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1959,7 +1955,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1976,17 +1972,17 @@
     </row>
     <row r="5" spans="1:27" ht="17">
       <c r="A5" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1994,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -2002,7 +1998,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -2019,17 +2015,17 @@
     </row>
     <row r="6" spans="1:27" ht="17">
       <c r="A6" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2037,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -2045,7 +2041,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
       <c r="O6" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2062,17 +2058,17 @@
     </row>
     <row r="7" spans="1:27" ht="17">
       <c r="A7" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2080,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -2088,7 +2084,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
       <c r="O7" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -2109,17 +2105,17 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2223,28 +2219,28 @@
         <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>54</v>
@@ -2253,13 +2249,13 @@
         <v>57</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>62</v>
@@ -2303,10 +2299,10 @@
     </row>
     <row r="3" spans="1:18" ht="17">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>0</v>
@@ -2315,13 +2311,13 @@
         <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2339,10 +2335,10 @@
     </row>
     <row r="4" spans="1:18" ht="17">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>0</v>
@@ -2351,13 +2347,13 @@
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>

--- a/assets/botsheet-example.xlsx
+++ b/assets/botsheet-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/Botpress/botpress-master/modules/sheet2bot/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B867A84-8AD0-5E4A-9B8A-77D9121DBCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5396FC-2637-BC41-A500-1F3E9182DF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="27460" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intent_qna" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>qna_id</t>
   </si>
@@ -397,6 +397,10 @@
   </si>
   <si>
     <t>occur2_3</t>
+  </si>
+  <si>
+    <t>markdown$ja</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1727,7 +1731,7 @@
   </sheetPr>
   <dimension ref="A1:IW9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2502,7 +2506,7 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2521,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>26</v>

--- a/assets/botsheet-example.xlsx
+++ b/assets/botsheet-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/Botpress/botpress-master/modules/sheet2bot/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5396FC-2637-BC41-A500-1F3E9182DF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D966D-25C0-7044-ACFE-81D0713C4DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27460" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="27460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intent_qna" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>qna_id</t>
   </si>
@@ -100,9 +100,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>mardown$ja</t>
-  </si>
-  <si>
     <t>typing$ja</t>
   </si>
   <si>
@@ -400,6 +397,41 @@
   </si>
   <si>
     <t>markdown$ja</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の質問例から選ぶか、自由に質問を入力してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>signup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>builtin_single-choice-Es1--z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dropdownPlaceholder$ja</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択してください</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センタク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>disableFreeText$ja</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -511,7 +543,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -567,6 +599,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1731,7 +1766,7 @@
   </sheetPr>
   <dimension ref="A1:IW9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1764,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="17">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1839,25 +1874,25 @@
         <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="17">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1865,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1873,7 +1908,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
       <c r="O2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -1890,17 +1925,17 @@
     </row>
     <row r="3" spans="1:27" ht="17">
       <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1908,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1916,7 +1951,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -1933,17 +1968,17 @@
     </row>
     <row r="4" spans="1:27" ht="68">
       <c r="A4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1951,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1959,7 +1994,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1976,17 +2011,17 @@
     </row>
     <row r="5" spans="1:27" ht="17">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1994,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -2002,7 +2037,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -2019,17 +2054,17 @@
     </row>
     <row r="6" spans="1:27" ht="17">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2037,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -2045,7 +2080,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
       <c r="O6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2062,17 +2097,17 @@
     </row>
     <row r="7" spans="1:27" ht="17">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2080,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -2088,7 +2123,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
       <c r="O7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -2105,21 +2140,21 @@
     </row>
     <row r="8" spans="1:27" ht="17">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2211,81 +2246,81 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2303,25 +2338,25 @@
     </row>
     <row r="3" spans="1:18" ht="17">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2339,25 +2374,25 @@
     </row>
     <row r="4" spans="1:18" ht="17">
       <c r="A4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -2375,16 +2410,16 @@
     </row>
     <row r="5" spans="1:18" ht="34">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2396,13 +2431,13 @@
       <c r="L5" s="5"/>
       <c r="M5" s="17"/>
       <c r="N5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="b">
@@ -2506,7 +2541,7 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2525,18 +2560,18 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="b">
         <v>1</v>
@@ -2545,12 +2580,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="b">
         <v>1</v>
@@ -2559,12 +2594,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7" t="b">
         <v>1</v>
@@ -2573,12 +2608,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>1</v>
@@ -2587,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2719,7 +2754,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV8"/>
+  <dimension ref="A1:IX8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2728,156 +2763,202 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" customWidth="1"/>
     <col min="8" max="8" width="14" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15" style="9" customWidth="1"/>
     <col min="10" max="10" width="14" style="9" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="9" customWidth="1"/>
     <col min="12" max="12" width="14" style="9" customWidth="1"/>
-    <col min="13" max="256" width="16.28515625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="14" style="9" customWidth="1"/>
+    <col min="15" max="258" width="16.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:14" ht="17">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="2" spans="1:14" ht="34">
+      <c r="A2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/assets/botsheet-example.xlsx
+++ b/assets/botsheet-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/Botpress/botpress-master/modules/sheet2bot/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D966D-25C0-7044-ACFE-81D0713C4DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC66C1-7A09-0542-BC66-01F7A0EC8DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="27460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
   <si>
     <t>qna_id</t>
   </si>
@@ -156,38 +156,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>builtin_text-YYfDdq</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ご質問を別の言い方でお願いできますか？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>builtin_text-Ikd0XP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「{{event.nlu.entities.0.data.value}}」に関するご質問と認識しました。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>builtin_text-QS6P3U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お役にたてず申し訳ありません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>builtin_text-99uIOE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>おっしゃる言葉の意図を認識できませんでした。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -367,14 +335,6 @@
   </si>
   <si>
     <t>パスワードの再発行はこちらからどうぞ。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>no-qna</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>選択肢の中に該当する質問がない</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -432,6 +392,58 @@
   </si>
   <si>
     <t>disableFreeText$ja</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>[3万](upper)円以下のある？</t>
+  </si>
+  <si>
+    <t>[3万](lower)円以上のが見たい</t>
+  </si>
+  <si>
+    <t>[5万](upper)円より安いスマホを教えて</t>
+  </si>
+  <si>
+    <t>[3万](lower)円以上かつ[5万](upper)円未満のを検索</t>
+  </si>
+  <si>
+    <t>[3万](lower)円から[5万](upper)円までで探しています</t>
+  </si>
+  <si>
+    <t>7ymmwWAESaOJHYiE975Vu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>s6XhsBJv2GaHwA3hp0dE4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>ありがとうございます。</t>
+  </si>
+  <si>
+    <t>かしこまりました。</t>
+  </si>
+  <si>
+    <t>builtin_text-ZLkwkX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>builtin_text-ddAPCh</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -543,7 +555,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -602,6 +614,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1780,20 +1807,20 @@
     <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
+    <col min="9" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" style="1" customWidth="1"/>
     <col min="16" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="15" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="28" max="257" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1880,19 +1907,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="17">
+    <row r="2" spans="1:27" ht="34">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1900,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1908,7 +1935,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
       <c r="O2" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -1925,17 +1952,17 @@
     </row>
     <row r="3" spans="1:27" ht="17">
       <c r="A3" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1943,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1951,7 +1978,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -1968,17 +1995,17 @@
     </row>
     <row r="4" spans="1:27" ht="68">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1986,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1994,7 +2021,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -2009,19 +2036,19 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="13"/>
     </row>
-    <row r="5" spans="1:27" ht="17">
+    <row r="5" spans="1:27" ht="34">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2029,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -2037,7 +2064,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -2054,17 +2081,17 @@
     </row>
     <row r="6" spans="1:27" ht="17">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2072,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -2080,7 +2107,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
       <c r="O6" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2097,17 +2124,17 @@
     </row>
     <row r="7" spans="1:27" ht="17">
       <c r="A7" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2115,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -2123,7 +2150,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
       <c r="O7" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -2138,42 +2165,66 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:27" ht="17">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:27" ht="51">
+      <c r="A8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="13"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" s="24">
+        <v>1</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="10"/>
@@ -2246,81 +2297,81 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2338,25 +2389,25 @@
     </row>
     <row r="3" spans="1:18" ht="17">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2374,25 +2425,25 @@
     </row>
     <row r="4" spans="1:18" ht="17">
       <c r="A4" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -2410,16 +2461,16 @@
     </row>
     <row r="5" spans="1:18" ht="34">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2431,13 +2482,13 @@
       <c r="L5" s="5"/>
       <c r="M5" s="17"/>
       <c r="N5" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="b">
@@ -2560,7 +2611,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>25</v>
@@ -2570,60 +2621,44 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
+      <c r="A2" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
-      <c r="A3" s="5" t="s">
-        <v>42</v>
+      <c r="A3" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5"/>
@@ -2785,19 +2820,19 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>27</v>
@@ -2826,7 +2861,7 @@
     </row>
     <row r="2" spans="1:14" ht="34">
       <c r="A2" s="19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="b">
         <v>0</v>
@@ -2838,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>

--- a/assets/botsheet-example.xlsx
+++ b/assets/botsheet-example.xlsx
@@ -8,28 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/Botpress/botpress-master/modules/sheet2bot/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC66C1-7A09-0542-BC66-01F7A0EC8DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2032AC-6D9A-554C-A89A-EEF81CE2B626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="27460" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="intent_qna" sheetId="1" r:id="rId1"/>
-    <sheet name="entities" sheetId="4" r:id="rId2"/>
-    <sheet name="builtin_text" sheetId="2" r:id="rId3"/>
-    <sheet name="builtin_single-choice" sheetId="3" r:id="rId4"/>
+    <sheet name="qna" sheetId="1" r:id="rId1"/>
+    <sheet name="intent" sheetId="5" r:id="rId2"/>
+    <sheet name="entity" sheetId="4" r:id="rId3"/>
+    <sheet name="builtin_text" sheetId="2" r:id="rId4"/>
+    <sheet name="builtin_single-choice" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
-  <si>
-    <t>qna_id</t>
-  </si>
-  <si>
-    <t>intent_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
   <si>
     <t>action</t>
   </si>
@@ -61,9 +56,6 @@
     <t>question5</t>
   </si>
   <si>
-    <t>question6</t>
-  </si>
-  <si>
     <t>answer1</t>
   </si>
   <si>
@@ -124,14 +116,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>qna</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>intent</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>choice2_title</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -273,9 +257,6 @@
   <si>
     <t>text</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>qna</t>
   </si>
   <si>
     <t>ab9qijcfr4_</t>
@@ -445,6 +426,22 @@
   <si>
     <t>builtin_text-ddAPCh</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>utterance1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>utterance2</t>
+  </si>
+  <si>
+    <t>utterance3</t>
+  </si>
+  <si>
+    <t>utterance4</t>
+  </si>
+  <si>
+    <t>utterance5</t>
   </si>
 </sst>
 </file>
@@ -555,7 +552,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -614,9 +611,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1791,7 +1785,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW9"/>
+  <dimension ref="A1:IL8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1800,48 +1794,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" customWidth="1"/>
-    <col min="9" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="15" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="15" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="257" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="18.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="246" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:16" ht="17">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1873,387 +1856,204 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="34">
+    </row>
+    <row r="2" spans="1:16" ht="34">
       <c r="A2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="G2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="13"/>
-    </row>
-    <row r="3" spans="1:27" ht="17">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="13"/>
-    </row>
-    <row r="4" spans="1:27" ht="68">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="68">
       <c r="A4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="G4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="13"/>
-    </row>
-    <row r="5" spans="1:27" ht="34">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="34">
       <c r="A5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="G5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="13"/>
-    </row>
-    <row r="6" spans="1:27" ht="17">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="G6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="13"/>
-    </row>
-    <row r="7" spans="1:27" ht="17">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="17">
       <c r="A7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="G7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="13"/>
-    </row>
-    <row r="8" spans="1:27" ht="51">
-      <c r="A8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="U8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="W8" s="24">
-        <v>1</v>
-      </c>
-      <c r="X8" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y8" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z8" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA8" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="13"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2266,6 +2066,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7218913E-6B87-BC46-A557-0147AEA1595F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IM3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" style="9" customWidth="1"/>
+    <col min="5" max="9" width="18.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="247" width="16.28515625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="51">
+      <c r="A2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="23">
+        <v>1</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="9" customFormat="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0683DF-E8E0-254E-AC71-B2A4475774A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2297,81 +2257,81 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2389,25 +2349,25 @@
     </row>
     <row r="3" spans="1:18" ht="17">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2425,25 +2385,25 @@
     </row>
     <row r="4" spans="1:18" ht="17">
       <c r="A4" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -2461,16 +2421,16 @@
     </row>
     <row r="5" spans="1:18" ht="34">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2482,13 +2442,13 @@
       <c r="L5" s="5"/>
       <c r="M5" s="17"/>
       <c r="N5" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="b">
@@ -2585,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2608,21 +2568,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7" t="b">
         <v>0</v>
@@ -2631,12 +2591,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="7" t="b">
         <v>0</v>
@@ -2645,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2784,7 +2744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2817,51 +2777,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34">
       <c r="A2" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4" t="b">
         <v>0</v>
@@ -2873,28 +2833,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="G2" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
